--- a/data/evaluation/evaluation_South_Winter_Cucumbers.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Cucumbers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.2336227859442</v>
+        <v>573.4273837670265</v>
       </c>
       <c r="C4" t="n">
-        <v>733568.0866309643</v>
+        <v>515532.1845697739</v>
       </c>
       <c r="D4" t="n">
-        <v>856.4858940058291</v>
+        <v>718.0056995385022</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.827648110951876</v>
+        <v>-3.798289906910101</v>
       </c>
     </row>
     <row r="5">
